--- a/Datasets/Scoring for ARIMA/Japan best order.xlsx
+++ b/Datasets/Scoring for ARIMA/Japan best order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Scoring for ARIMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E85881-A313-428E-BC7A-749BE4F2218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC4D063-DEAE-4907-9D82-AFB2A1CF3C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="2709" windowWidth="23983" windowHeight="13594" xr2:uid="{13C9A9E7-0338-4F19-80F7-90BEA12DC45B}"/>
   </bookViews>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,7 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +547,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1089,7 +1093,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="7">
@@ -1101,10 +1105,10 @@
       <c r="D28" s="7">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="9">
         <v>0.51</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="9">
         <v>0.435</v>
       </c>
     </row>
